--- a/tests/data/input/一级报告详情测试用例-07001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-07001.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2116C4-F0DA-45FB-A258-D23EAEAB6F17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,17 +49,11 @@
     <t>是否通过</t>
   </si>
   <si>
-    <t>user_name;
-id_card_no;
-phone</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -76,152 +64,134 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>7001</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>loan_analyst_overdue_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>info_loan_stats.id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.recent_months[0]="RECENTLY_1M"
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time='最近1个月'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=最近1个月</t>
+  </si>
+  <si>
+    <t>user_name;
+id_card_no;
+phone</t>
   </si>
   <si>
     <t xml:space="preserve">info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.recent_months[0]="RECENTLY_3M"
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time='最近3个月'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=最近3个月</t>
   </si>
   <si>
     <t xml:space="preserve">info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.recent_months[0]="RECENTLY_6M"
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time='最近6个月'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time='最近12个月'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=''</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=''</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='0~0.2万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='0.2万~0.5万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='0.5万~1万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='1万~3万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='3万~5万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='5万~10万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='10万以上'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=最近6个月</t>
   </si>
   <si>
     <t xml:space="preserve">info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.recent_months[0]="RECENTLY_12M"
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=最近12个月</t>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=</t>
   </si>
   <si>
     <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]=0;
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=</t>
   </si>
   <si>
     <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]=1;
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=0~0.2万</t>
   </si>
   <si>
     <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]=2;
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=0.2万~0.5万</t>
   </si>
   <si>
     <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]=5;
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=0.5万~1万</t>
   </si>
   <si>
     <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]=10;
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=1万~3万</t>
   </si>
   <si>
     <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]=30;
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=3万~5万</t>
   </si>
   <si>
     <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]=50;
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=5万~10万</t>
   </si>
   <si>
     <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]=100;
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=10万以上</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,7 +204,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -242,27 +211,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -298,11 +589,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -319,28 +852,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -627,33 +1204,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="84.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.54296875" customWidth="1"/>
-    <col min="9" max="10" width="12.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="14" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.9083333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.725" style="1" customWidth="1"/>
+    <col min="5" max="5" width="84.2666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8166666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5416666666667" customWidth="1"/>
+    <col min="9" max="10" width="12.2666666666667" customWidth="1"/>
+    <col min="11" max="11" width="13.3666666666667" customWidth="1"/>
+    <col min="12" max="14" width="11.45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" ht="40.5" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,371 +1261,371 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" ht="40.5" spans="1:10">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:10">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:10">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" ht="27" spans="1:10">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:10">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:10">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:10">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" ht="40.5" spans="1:10">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" ht="40.5" spans="1:10">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" ht="40.5" spans="1:10">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" ht="40.5" spans="1:10">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" ht="40.5" spans="1:10">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="15" ht="27" spans="1:10">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/tests/data/input/一级报告详情测试用例-07001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-07001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2116C4-F0DA-45FB-A258-D23EAEAB6F17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE204A69-34EA-44B8-A905-B776E76FA3BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>用例编号</t>
   </si>
@@ -99,70 +99,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>loan_analyst_overdue_time='最近1个月'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.recent_months[0]="RECENTLY_3M"
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>loan_analyst_overdue_time='最近3个月'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.recent_months[0]="RECENTLY_6M"
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>loan_analyst_overdue_time='最近6个月'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time='最近12个月'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=''</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=''</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='0~0.2万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='0.2万~0.5万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='0.5万~1万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='1万~3万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='3万~5万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='5万~10万'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval='10万以上'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.recent_months[0]="RECENTLY_12M"
 </t>
@@ -214,6 +162,62 @@
     <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.low_balance_fail_count[0]=100;
 info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=最近1个月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=最近3个月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=最近6个月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=最近12个月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=0~0.2万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=0.5万~1万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=1万~3万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=3万~5万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=5万~10万</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=10万以上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=0.2万~0.5万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -635,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -704,7 +708,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>10</v>
@@ -726,11 +730,11 @@
         <v>13</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
@@ -752,11 +756,11 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>10</v>
@@ -778,11 +782,11 @@
         <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>10</v>
@@ -806,7 +810,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="5"/>
       <c r="G6" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
@@ -822,17 +826,17 @@
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>10</v>
@@ -848,17 +852,17 @@
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>10</v>
@@ -874,17 +878,17 @@
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>10</v>
@@ -900,17 +904,17 @@
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>10</v>
@@ -926,17 +930,17 @@
         <v>11</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>10</v>
@@ -952,17 +956,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>10</v>
@@ -978,17 +982,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>10</v>
@@ -1004,17 +1008,17 @@
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>10</v>
@@ -1030,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>13</v>
@@ -1038,7 +1042,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>10</v>

--- a/tests/data/input/一级报告详情测试用例-07001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-07001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE204A69-34EA-44B8-A905-B776E76FA3BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992B3068-30C5-459A-B24A-197ABFF1D464}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
   <si>
     <t>用例编号</t>
   </si>
@@ -169,22 +169,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>loan_analyst_overdue_time=最近1个月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=最近3个月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=最近6个月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=最近12个月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>loan_analyst_overdue_time=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -193,31 +177,94 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>loan_analyst_overdue_amt_interval=0~0.2万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=0.5万~1万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=1万~3万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=3万~5万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=5万~10万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=10万以上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=0.2万~0.5万</t>
+    <t>loan_analyst_overdue_time=['最近1个月']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=['最近3个月']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=['最近6个月']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=['最近12个月']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['0~0.2万']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['0.2万~0.5万']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['0.5万~1万']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['1万~3万']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['3万~5万']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['5万~10万']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['10万以上']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_loan_stats_pay.loan_stats_id;
+info_loan_stats_pay.recent_months[0]="RECENTLY_1M";
+info_loan_stats_pay.recent_months[1]="RECENTLY_3M";
+info_loan_stats_pay.recent_months[2]="RECENTLY_6M";
+info_loan_stats_pay.recent_months[3]="RECENTLY_12M";
+info_loan_stats_pay.recent_months[4]=""</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_loan_stats_pay.loan_stats_id;
+info_loan_stats_pay.low_balance_fail_count[0]=0;
+info_loan_stats_pay.success_pay_avg_amount[0]=1000;
+info_loan_stats_pay.low_balance_fail_count[1]=;
+info_loan_stats_pay.success_pay_avg_amount[1]=;
+info_loan_stats_pay.low_balance_fail_count[2]=1;
+info_loan_stats_pay.success_pay_avg_amount[2]=1000;
+info_loan_stats_pay.low_balance_fail_count[3]=2;
+info_loan_stats_pay.success_pay_avg_amount[3]=1000;
+info_loan_stats_pay.low_balance_fail_count[4]=5;
+info_loan_stats_pay.success_pay_avg_amount[4]=1000;
+info_loan_stats_pay.low_balance_fail_count[5]=10;
+info_loan_stats_pay.success_pay_avg_amount[5]=1000;
+info_loan_stats_pay.low_balance_fail_count[6]=30;
+info_loan_stats_pay.success_pay_avg_amount[6]=1000;
+info_loan_stats_pay.low_balance_fail_count[7]=50;
+info_loan_stats_pay.success_pay_avg_amount[7]=1000;
+info_loan_stats_pay.low_balance_fail_count[8]=100;
+info_loan_stats_pay.success_pay_avg_amount[8]=1000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_loan_stats_pay.loan_stats_id;
+info_loan_stats_pay.low_balance_fail_count[0]=0;
+info_loan_stats_pay.success_pay_avg_amount[0]=1000;
+info_loan_stats_pay.low_balance_fail_count[1]=;
+info_loan_stats_pay.success_pay_avg_amount[1]=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_amt_interval=['', '', '0~0.2万', '0.2万~0.5万', '0.5万~1万', '1万~3万', '3万~5万', '5万~10万', '10万以上']</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loan_analyst_overdue_time=['最近1个月', '最近3个月', '最近6个月', '最近12个月', '']</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -637,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -708,7 +755,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>10</v>
@@ -717,7 +764,7 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -734,7 +781,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
@@ -743,7 +790,7 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -760,7 +807,7 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>10</v>
@@ -769,7 +816,7 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -786,7 +833,7 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>10</v>
@@ -795,7 +842,7 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -810,7 +857,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="5"/>
       <c r="G6" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>10</v>
@@ -818,25 +865,25 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:11" ht="84" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="9" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>10</v>
@@ -845,7 +892,7 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -858,11 +905,11 @@
         <v>13</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>10</v>
@@ -871,7 +918,7 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -884,11 +931,11 @@
         <v>13</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>10</v>
@@ -897,7 +944,7 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -910,7 +957,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="9" t="s">
@@ -923,7 +970,7 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -936,7 +983,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="9" t="s">
@@ -949,7 +996,7 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -962,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="9" t="s">
@@ -975,7 +1022,7 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -988,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="9" t="s">
@@ -1001,7 +1048,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -1014,7 +1061,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="9" t="s">
@@ -1026,8 +1073,8 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1039,16 +1086,90 @@
       <c r="D15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="9" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="28" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="266" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="70" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/tests/data/input/一级报告详情测试用例-07001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-07001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992B3068-30C5-459A-B24A-197ABFF1D464}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A1AB57-AB0A-4D44-996D-624179230D76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>用例编号</t>
   </si>
@@ -85,186 +85,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>loan_analyst_overdue_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>info_loan_stats.id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.recent_months[0]="RECENTLY_1M"
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.recent_months[0]="RECENTLY_3M"
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.recent_months[0]="RECENTLY_6M"
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.recent_months[0]="RECENTLY_12M"
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.low_balance_fail_count[0]=0;
-info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.low_balance_fail_count[0]=1;
-info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.low_balance_fail_count[0]=2;
-info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.low_balance_fail_count[0]=5;
-info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.low_balance_fail_count[0]=10;
-info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.low_balance_fail_count[0]=30;
-info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.low_balance_fail_count[0]=50;
-info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.low_balance_fail_count[0]=100;
-info_loan_stats_pay.success_pay_avg_amount[0]=1000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=['最近1个月']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=['最近3个月']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=['最近6个月']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=['最近12个月']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=['0~0.2万']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=['0.2万~0.5万']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=['0.5万~1万']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=['1万~3万']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=['3万~5万']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=['5万~10万']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=['10万以上']</t>
+    <t>loan_analyst_overdue_time_amt</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>info_loan_stats_pay.loan_stats_id;
 info_loan_stats_pay.recent_months[0]="RECENTLY_1M";
+info_loan_stats_pay.low_balance_fail_count[0]=1;
+info_loan_stats_pay.success_pay_avg_amount[0]=1000;
 info_loan_stats_pay.recent_months[1]="RECENTLY_3M";
+info_loan_stats_pay.low_balance_fail_count[1]=3;
+info_loan_stats_pay.success_pay_avg_amount[1]=1000;
 info_loan_stats_pay.recent_months[2]="RECENTLY_6M";
+info_loan_stats_pay.low_balance_fail_count[2]=8;
+info_loan_stats_pay.success_pay_avg_amount[2]=1000;
 info_loan_stats_pay.recent_months[3]="RECENTLY_12M";
-info_loan_stats_pay.recent_months[4]=""</t>
+info_loan_stats_pay.low_balance_fail_count[3]=20;
+info_loan_stats_pay.success_pay_avg_amount[3]=1000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.low_balance_fail_count[0]=0;
-info_loan_stats_pay.success_pay_avg_amount[0]=1000;
-info_loan_stats_pay.low_balance_fail_count[1]=;
-info_loan_stats_pay.success_pay_avg_amount[1]=;
-info_loan_stats_pay.low_balance_fail_count[2]=1;
-info_loan_stats_pay.success_pay_avg_amount[2]=1000;
-info_loan_stats_pay.low_balance_fail_count[3]=2;
-info_loan_stats_pay.success_pay_avg_amount[3]=1000;
-info_loan_stats_pay.low_balance_fail_count[4]=5;
-info_loan_stats_pay.success_pay_avg_amount[4]=1000;
-info_loan_stats_pay.low_balance_fail_count[5]=10;
-info_loan_stats_pay.success_pay_avg_amount[5]=1000;
-info_loan_stats_pay.low_balance_fail_count[6]=30;
-info_loan_stats_pay.success_pay_avg_amount[6]=1000;
-info_loan_stats_pay.low_balance_fail_count[7]=50;
-info_loan_stats_pay.success_pay_avg_amount[7]=1000;
-info_loan_stats_pay.low_balance_fail_count[8]=100;
-info_loan_stats_pay.success_pay_avg_amount[8]=1000</t>
+    <t>loan_analyst_overdue_time_amt=['最近1个月:0~0.2万', '最近3个月:0.2万~0.5万', '最近6个月:0.5万~1万', '最近12个月:1万~3万']</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>info_loan_stats_pay.loan_stats_id;
-info_loan_stats_pay.low_balance_fail_count[0]=0;
-info_loan_stats_pay.success_pay_avg_amount[0]=1000;
-info_loan_stats_pay.low_balance_fail_count[1]=;
-info_loan_stats_pay.success_pay_avg_amount[1]=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_amt_interval=['', '', '0~0.2万', '0.2万~0.5万', '0.5万~1万', '1万~3万', '3万~5万', '5万~10万', '10万以上']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>loan_analyst_overdue_time=['最近1个月', '最近3个月', '最近6个月', '最近12个月', '']</t>
+    <t>loan_analyst_overdue_time_amt=None</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -684,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -737,7 +586,7 @@
       </c>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -745,17 +594,17 @@
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>10</v>
@@ -763,7 +612,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -771,405 +620,21 @@
         <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="5"/>
       <c r="G3" s="9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="84" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="28" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="266" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="70" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
